--- a/zero-is/src/main/resources/plugin/is/oob/role/ADMIN.SUPER/falcon.i.message.xlsx
+++ b/zero-is/src/main/resources/plugin/is/oob/role/ADMIN.SUPER/falcon.i.message.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/workshop/zero-ws/zero-extension/zero-is/src/main/resources/plugin/is/oob/role/ADMIN.SUPER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F015FAC-72C5-BA49-AF1B-7DE92B2FB253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32ECE81-180B-7745-A815-BA5BF7C4A374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56560" yWindow="-4920" windowWidth="50720" windowHeight="27100" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="-45240" yWindow="-7980" windowWidth="50720" windowHeight="27100" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -23,8 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>active</t>
   </si>
@@ -133,13 +137,19 @@
     <t>个人消息读取</t>
   </si>
   <si>
-    <t>个人消息阅读</t>
-  </si>
-  <si>
     <t>d0f6be3b-491a-4de3-9046-529ce956207b</t>
   </si>
   <si>
     <t>41c2f493-c073-4a30-9a9d-d6d33449d3da</t>
+  </si>
+  <si>
+    <t>31d15959-7cf8-44e9-bbc0-57d90a91568f</t>
+  </si>
+  <si>
+    <t>个人消息保存</t>
+  </si>
+  <si>
+    <t>个人消息删除</t>
   </si>
 </sst>
 </file>
@@ -304,11 +314,11 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -655,7 +665,7 @@
   <dimension ref="A5:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B9"/>
+      <selection activeCell="C8" sqref="C8:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -708,9 +718,9 @@
         <v>8</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>32</v>
       </c>
     </row>
@@ -719,10 +729,21 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>33</v>
+      <c r="C10" s="14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -748,17 +769,17 @@
       <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
